--- a/citas/update/HEREDIA_citas_disponibles.xlsx
+++ b/citas/update/HEREDIA_citas_disponibles.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Viernes 17/05/2024</t>
+          <t>Lunes 03/06/2024</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jueves 23/05/2024</t>
+          <t>Lunes 10/06/2024</t>
         </is>
       </c>
     </row>
@@ -465,19 +465,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jueves 30/05/2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Viernes 31/05/2024</t>
+          <t>Lunes 24/06/2024</t>
         </is>
       </c>
     </row>

--- a/citas/update/HEREDIA_citas_disponibles.xlsx
+++ b/citas/update/HEREDIA_citas_disponibles.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lunes 03/06/2024</t>
+          <t>Jueves 16/05/2024</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lunes 10/06/2024</t>
+          <t>Viernes 17/05/2024</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,91 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lunes 24/06/2024</t>
+          <t>Lunes 20/05/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Martes 21/05/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Miércoles 22/05/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jueves 23/05/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Lunes 27/05/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Martes 28/05/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Miércoles 29/05/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Jueves 30/05/2024</t>
         </is>
       </c>
     </row>

--- a/citas/update/HEREDIA_citas_disponibles.xlsx
+++ b/citas/update/HEREDIA_citas_disponibles.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jueves 16/05/2024</t>
+          <t>Lunes 03/06/2024</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Viernes 17/05/2024</t>
+          <t>Lunes 10/06/2024</t>
         </is>
       </c>
     </row>
@@ -465,91 +465,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lunes 20/05/2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Martes 21/05/2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Miércoles 22/05/2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Jueves 23/05/2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Lunes 27/05/2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Martes 28/05/2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Miércoles 29/05/2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Jueves 30/05/2024</t>
+          <t>Lunes 24/06/2024</t>
         </is>
       </c>
     </row>

--- a/citas/update/HEREDIA_citas_disponibles.xlsx
+++ b/citas/update/HEREDIA_citas_disponibles.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lunes 03/06/2024</t>
+          <t>Martes 11/06/2024</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lunes 10/06/2024</t>
+          <t>Miércoles 12/06/2024</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,55 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lunes 24/06/2024</t>
+          <t>Jueves 13/06/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Viernes 14/06/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Martes 25/06/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Miércoles 26/06/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jueves 27/06/2024</t>
         </is>
       </c>
     </row>
